--- a/maps/xtehr2zibs2024/MedicationPrescription-full.xlsx
+++ b/maps/xtehr2zibs2024/MedicationPrescription-full.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nictiznl-my.sharepoint.com/personal/wouter_zanen_nictiz_nl/Documents/Documenten/GitHub/eu-nl-compared/maps/xtehr2zibs2024/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_59CDE3FADF030E0EAD2C4CBF0D2C11B17978D4A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5001F0F3-34F3-4FF5-A679-DE7956127308}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="197">
   <si>
     <t>xtehr</t>
   </si>
@@ -193,10 +199,31 @@
     <t>DispenseRequest</t>
   </si>
   <si>
+    <t>DispenseRequest.Comment</t>
+  </si>
+  <si>
+    <t>DispenseRequest.MedicineToBeDispensed::PharmaceuticalProduct</t>
+  </si>
+  <si>
+    <t>DispenseRequest.AdditionalWishes</t>
+  </si>
+  <si>
+    <t>DispenseRequest.Amount</t>
+  </si>
+  <si>
+    <t>DispenseRequest.NumberOfRefills</t>
+  </si>
+  <si>
+    <t>DispenseRequest.DispenseRequestStatus</t>
+  </si>
+  <si>
+    <t>DispenseRequest.SupplyPeriod::TimeInterval</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t xml:space="preserve">MedicineToBeDispensed::PharmaceuticalProduct	</t>
+    <t>MedicineToBeDispensed::PharmaceuticalProduct</t>
   </si>
   <si>
     <t>AdditionalWishes</t>
@@ -223,49 +250,37 @@
     <t>IntendedSupplier::HealthcareProvider</t>
   </si>
   <si>
-    <t>MedicineToBeDispensed::PharmaceuticalProduct</t>
-  </si>
-  <si>
-    <t>DispenseRequest.AdditionalWishes</t>
-  </si>
-  <si>
-    <t>DispenseRequest.Amount</t>
-  </si>
-  <si>
-    <t>DispenseRequest.Comment</t>
-  </si>
-  <si>
     <t>DispenseRequest.DispenseLocation</t>
   </si>
   <si>
     <t>DispenseRequest.DispenseRequestDate</t>
   </si>
   <si>
-    <t>DispenseRequest.DispenseRequestStatus</t>
-  </si>
-  <si>
     <t>DispenseRequest.IntendedSupplier::HealthcareProvider</t>
   </si>
   <si>
-    <t>DispenseRequest.MedicineToBeDispensed::PharmaceuticalProduct</t>
-  </si>
-  <si>
-    <t>DispenseRequest.NumberOfRefills</t>
-  </si>
-  <si>
-    <t>DispenseRequest.SupplyPeriod::TimeInterval</t>
-  </si>
-  <si>
     <t>NL: Verstrekkingsverzoek</t>
   </si>
   <si>
+    <t>NL: Toelichting</t>
+  </si>
+  <si>
+    <t>NL: TeVerstrekkenGeneesmiddel::FarmaceutischProduct</t>
+  </si>
+  <si>
     <t>NL: AanvullendeWensen</t>
   </si>
   <si>
     <t>NL: TeVerstrekkenHoeveelheid</t>
   </si>
   <si>
-    <t>NL: Toelichting</t>
+    <t>NL: AantalHerhalingen</t>
+  </si>
+  <si>
+    <t>NL: VerstrekkingsverzoekStatus</t>
+  </si>
+  <si>
+    <t>NL: Verbruiksperiode::TijdsInterval</t>
   </si>
   <si>
     <t>NL: Afleverlocatie</t>
@@ -274,19 +289,10 @@
     <t>NL: VerstrekkingsverzoekDatum</t>
   </si>
   <si>
-    <t>NL: VerstrekkingsverzoekStatus</t>
-  </si>
-  <si>
     <t>NL: BeoogdVerstrekker::Zorgaanbieder</t>
   </si>
   <si>
-    <t>NL: TeVerstrekkenGeneesmiddel::FarmaceutischProduct</t>
-  </si>
-  <si>
-    <t>NL: AantalHerhalingen</t>
-  </si>
-  <si>
-    <t>NL: Verbruiksperiode::TijdsInterval</t>
+    <t>ST</t>
   </si>
   <si>
     <t>CD</t>
@@ -295,46 +301,55 @@
     <t>PQ</t>
   </si>
   <si>
-    <t>ST</t>
+    <t>INT</t>
   </si>
   <si>
     <t>TS</t>
   </si>
   <si>
-    <t>INT</t>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>0..*</t>
   </si>
   <si>
-    <t>0..1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>rootconcept</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
+    <t>data,reference</t>
+  </si>
+  <si>
     <t>context,reference</t>
   </si>
   <si>
-    <t>data,reference</t>
-  </si>
-  <si>
     <t>NL-CM:9.10.19963</t>
   </si>
   <si>
+    <t>NL-CM:9.10.22274</t>
+  </si>
+  <si>
+    <t>NL-CM:9.10.22249</t>
+  </si>
+  <si>
     <t>NL-CM:9.10.22759</t>
   </si>
   <si>
     <t>NL-CM:9.10.19964</t>
   </si>
   <si>
-    <t>NL-CM:9.10.22274</t>
+    <t>NL-CM:9.10.22120</t>
+  </si>
+  <si>
+    <t>NL-CM:9.10.22760</t>
+  </si>
+  <si>
+    <t>NL-CM:9.10.20062</t>
   </si>
   <si>
     <t>NL-CM:9.10.20068</t>
@@ -343,47 +358,23 @@
     <t>NL-CM:9.10.20060</t>
   </si>
   <si>
-    <t>NL-CM:9.10.22760</t>
-  </si>
-  <si>
     <t>NL-CM:9.10.19966</t>
   </si>
   <si>
-    <t>NL-CM:9.10.22249</t>
-  </si>
-  <si>
-    <t>NL-CM:9.10.22120</t>
-  </si>
-  <si>
-    <t>NL-CM:9.10.20062</t>
-  </si>
-  <si>
     <t>Root concept of the DispenseRequest information model.This root concept contains all data elements of the DispenseRequest information model.</t>
-  </si>
-  <si>
-    <t>Logistics and other instructions such as: do not enter in GDS, urgent, purposeful deviation, etc.</t>
-  </si>
-  <si>
-    <t>This is the number of units of the ordered product per dispense. The number of refills indicates how often this amount is allowed to be dispensed. Optionally a translation to NHG table Gebruiksvoorschriften (Table 25) is also allowed.</t>
   </si>
   <si>
     <t>Explanation for the dispense request. 
 This explanation can contain e.g. information on why a prescriber submits a dispense request that deviates from the norm, e.g. an extra dispense request needed because the patient has lost the medication.</t>
   </si>
   <si>
-    <t>Dispense location.</t>
-  </si>
-  <si>
-    <t>Time at which the dispense request is entered.</t>
-  </si>
-  <si>
-    <t>Status of the order in the ordering process, such as e.g. 'cancelled', 'ordered'</t>
-  </si>
-  <si>
-    <t>The intended supplier is a pharmacist.</t>
-  </si>
-  <si>
     <t>The medicine to be dispensed.</t>
+  </si>
+  <si>
+    <t>Logistics and other instructions such as: do not enter in GDS, urgent, purposeful deviation, etc.</t>
+  </si>
+  <si>
+    <t>This is the number of units of the ordered product per dispense. The number of refills indicates how often this amount is allowed to be dispensed. Optionally a translation to NHG table Gebruiksvoorschriften (Table 25) is also allowed.</t>
   </si>
   <si>
     <t>The number of additional times the medication may be dispensed after the first time. 
@@ -391,9 +382,21 @@
 In the case of Period of Use:The total period of use is: (Number of refills + 1) x period of use</t>
   </si>
   <si>
+    <t>Status of the order in the ordering process, such as e.g. 'cancelled', 'ordered'</t>
+  </si>
+  <si>
     <t>During the approved period of use, the pharmacist has permission to dispense medicine so that the patient has a sufficient amount of medication.
 In many cases, the approved supply period can be described by only an end date: the approved end date of use. 
 Toegestane eenheden voor de duur zijn:  uur, dag, week, jaar.</t>
+  </si>
+  <si>
+    <t>Dispense location.</t>
+  </si>
+  <si>
+    <t>Time at which the dispense request is entered.</t>
+  </si>
+  <si>
+    <t>The intended supplier is a pharmacist.</t>
   </si>
   <si>
     <t>SNOMED CT: 52711000146108 Request to dispense medication to patient</t>
@@ -618,8 +621,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,17 +681,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -726,7 +737,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -760,6 +771,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -794,9 +806,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -969,14 +982,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" customWidth="1"/>
+    <col min="13" max="13" width="33" customWidth="1"/>
+    <col min="14" max="14" width="30.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1046,19 +1070,19 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -1067,16 +1091,16 @@
         <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1087,19 +1111,19 @@
         <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1110,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1133,19 +1157,19 @@
         <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1156,19 +1180,19 @@
         <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1179,19 +1203,19 @@
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1202,19 +1226,19 @@
         <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1225,22 +1249,22 @@
         <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1251,19 +1275,19 @@
         <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1274,19 +1298,19 @@
         <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1297,19 +1321,19 @@
         <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1320,19 +1344,19 @@
         <v>29</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1343,19 +1367,19 @@
         <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1366,19 +1390,19 @@
         <v>31</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1389,19 +1413,19 @@
         <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1412,19 +1436,19 @@
         <v>33</v>
       </c>
       <c r="N17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1435,19 +1459,19 @@
         <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1458,19 +1482,19 @@
         <v>35</v>
       </c>
       <c r="N19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1481,25 +1505,52 @@
         <v>36</v>
       </c>
       <c r="N20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
       </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" t="s">
+        <v>125</v>
+      </c>
       <c r="L21" t="s">
         <v>37</v>
       </c>
@@ -1507,19 +1558,19 @@
         <v>37</v>
       </c>
       <c r="N21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1530,19 +1581,19 @@
         <v>38</v>
       </c>
       <c r="N22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1553,19 +1604,19 @@
         <v>39</v>
       </c>
       <c r="N23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1576,19 +1627,19 @@
         <v>40</v>
       </c>
       <c r="N24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1599,25 +1650,46 @@
         <v>41</v>
       </c>
       <c r="N25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>60</v>
       </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" t="s">
+        <v>115</v>
+      </c>
       <c r="L26" t="s">
         <v>42</v>
       </c>
@@ -1625,19 +1697,19 @@
         <v>42</v>
       </c>
       <c r="N26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1648,19 +1720,19 @@
         <v>43</v>
       </c>
       <c r="N27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1671,19 +1743,19 @@
         <v>44</v>
       </c>
       <c r="N28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1694,19 +1766,19 @@
         <v>45</v>
       </c>
       <c r="N29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1717,25 +1789,49 @@
         <v>46</v>
       </c>
       <c r="N30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" t="s">
+        <v>116</v>
+      </c>
       <c r="L31" t="s">
         <v>47</v>
       </c>
@@ -1743,19 +1839,19 @@
         <v>47</v>
       </c>
       <c r="N31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1766,25 +1862,49 @@
         <v>48</v>
       </c>
       <c r="N32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
       </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" t="s">
+        <v>117</v>
+      </c>
       <c r="L33" t="s">
         <v>49</v>
       </c>
@@ -1792,28 +1912,52 @@
         <v>49</v>
       </c>
       <c r="N33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
       </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" t="s">
+        <v>118</v>
+      </c>
       <c r="L34" t="s">
         <v>50</v>
       </c>
@@ -1821,25 +1965,49 @@
         <v>50</v>
       </c>
       <c r="N34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>64</v>
       </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" t="s">
+        <v>119</v>
+      </c>
       <c r="L35" t="s">
         <v>51</v>
       </c>
@@ -1847,19 +2015,19 @@
         <v>51</v>
       </c>
       <c r="N35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1870,19 +2038,19 @@
         <v>52</v>
       </c>
       <c r="N36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1893,19 +2061,19 @@
         <v>53</v>
       </c>
       <c r="N37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1916,19 +2084,19 @@
         <v>54</v>
       </c>
       <c r="N38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1939,25 +2107,46 @@
         <v>55</v>
       </c>
       <c r="N39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" t="s">
+        <v>120</v>
+      </c>
       <c r="L40" t="s">
         <v>56</v>
       </c>
@@ -1965,19 +2154,19 @@
         <v>56</v>
       </c>
       <c r="N40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1988,270 +2177,91 @@
         <v>57</v>
       </c>
       <c r="N41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I42" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I43" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I44" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J44" t="s">
-        <v>117</v>
-      </c>
-      <c r="K44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="C45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" t="s">
-        <v>97</v>
-      </c>
-      <c r="H45" t="s">
-        <v>100</v>
-      </c>
-      <c r="I45" t="s">
-        <v>107</v>
-      </c>
-      <c r="J45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="C46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H46" t="s">
-        <v>100</v>
-      </c>
-      <c r="I46" t="s">
-        <v>108</v>
-      </c>
-      <c r="J46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="C47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" t="s">
-        <v>86</v>
-      </c>
-      <c r="F47" t="s">
-        <v>91</v>
-      </c>
-      <c r="G47" t="s">
-        <v>98</v>
-      </c>
-      <c r="H47" t="s">
-        <v>100</v>
-      </c>
-      <c r="I47" t="s">
-        <v>109</v>
-      </c>
-      <c r="J47" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="C48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" t="s">
-        <v>87</v>
-      </c>
-      <c r="G48" t="s">
-        <v>97</v>
-      </c>
-      <c r="H48" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" t="s">
-        <v>110</v>
-      </c>
-      <c r="J48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10">
-      <c r="C49" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" t="s">
-        <v>98</v>
-      </c>
-      <c r="H49" t="s">
-        <v>102</v>
-      </c>
-      <c r="I49" t="s">
-        <v>111</v>
-      </c>
-      <c r="J49" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10">
-      <c r="C50" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" t="s">
-        <v>95</v>
-      </c>
-      <c r="G50" t="s">
-        <v>97</v>
-      </c>
-      <c r="H50" t="s">
-        <v>100</v>
-      </c>
-      <c r="I50" t="s">
-        <v>112</v>
-      </c>
-      <c r="J50" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10">
-      <c r="C51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" t="s">
-        <v>79</v>
-      </c>
-      <c r="E51" t="s">
-        <v>90</v>
-      </c>
-      <c r="G51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H51" t="s">
-        <v>102</v>
-      </c>
-      <c r="I51" t="s">
-        <v>113</v>
-      </c>
-      <c r="J51" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/maps/xtehr2zibs2024/MedicationPrescription-full.xlsx
+++ b/maps/xtehr2zibs2024/MedicationPrescription-full.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nictiznl-my.sharepoint.com/personal/wouter_zanen_nictiz_nl/Documents/Documenten/GitHub/eu-nl-compared/maps/xtehr2zibs2024/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_59CDE3FADF030E0EAD2C4CBF0D2C11B17978D4A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5001F0F3-34F3-4FF5-A679-DE7956127308}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="197">
   <si>
     <t>xtehr</t>
   </si>
@@ -220,6 +214,15 @@
     <t>DispenseRequest.SupplyPeriod::TimeInterval</t>
   </si>
   <si>
+    <t>DispenseRequest.DispenseLocation</t>
+  </si>
+  <si>
+    <t>DispenseRequest.DispenseRequestDate</t>
+  </si>
+  <si>
+    <t>DispenseRequest.IntendedSupplier::HealthcareProvider</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -248,15 +251,6 @@
   </si>
   <si>
     <t>IntendedSupplier::HealthcareProvider</t>
-  </si>
-  <si>
-    <t>DispenseRequest.DispenseLocation</t>
-  </si>
-  <si>
-    <t>DispenseRequest.DispenseRequestDate</t>
-  </si>
-  <si>
-    <t>DispenseRequest.IntendedSupplier::HealthcareProvider</t>
   </si>
   <si>
     <t>NL: Verstrekkingsverzoek</t>
@@ -621,8 +615,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,25 +675,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -737,7 +723,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -771,7 +757,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -806,10 +791,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -982,25 +966,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="61.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" customWidth="1"/>
-    <col min="13" max="13" width="33" customWidth="1"/>
-    <col min="14" max="14" width="30.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1100,7 +1073,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1123,7 +1096,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1146,7 +1119,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1169,7 +1142,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1192,7 +1165,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1215,7 +1188,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1238,7 +1211,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1264,7 +1237,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1287,7 +1260,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1310,7 +1283,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1333,7 +1306,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1356,7 +1329,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1379,7 +1352,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1402,7 +1375,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1425,7 +1398,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1448,7 +1421,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1471,7 +1444,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1494,7 +1467,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1517,7 +1490,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1525,7 +1498,7 @@
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
@@ -1570,7 +1543,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1593,7 +1566,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1616,7 +1589,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1639,7 +1612,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1662,7 +1635,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1670,7 +1643,7 @@
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
         <v>60</v>
@@ -1709,7 +1682,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1732,7 +1705,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1755,7 +1728,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1778,7 +1751,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1801,7 +1774,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1809,7 +1782,7 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>61</v>
@@ -1851,7 +1824,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1874,7 +1847,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1882,7 +1855,7 @@
         <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>62</v>
@@ -1927,7 +1900,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1935,7 +1908,7 @@
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
         <v>63</v>
@@ -1977,7 +1950,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1985,7 +1958,7 @@
         <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
         <v>64</v>
@@ -2027,7 +2000,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -2050,7 +2023,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -2073,7 +2046,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -2096,7 +2069,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2119,7 +2092,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2127,7 +2100,7 @@
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
         <v>65</v>
@@ -2166,7 +2139,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2189,12 +2162,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18">
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
         <v>87</v>
@@ -2215,12 +2191,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18">
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
         <v>88</v>
@@ -2241,12 +2220,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18">
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E44" t="s">
         <v>89</v>
